--- a/data/hotels_by_city/Denver/Denver_shard_83.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_83.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33456-d85311-Reviews-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_Colora.html</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Tech-Center-S-Greenwood-Village.h118461.Hotel-Information?chkin=4%2F22%2F2018&amp;chkout=4%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=7480f861-04ed-4bcd-bab4-e14ae45e84dbHWRQ1523490967932&amp;regionId=55123&amp;vip=false&amp;c=3abb053d-98e0-42d0-8ef5-3bad5ee04c11&amp;mctc=9&amp;exp_dp=66.49&amp;exp_ts=1523490975929&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,567 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r582483609-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>33456</t>
+  </si>
+  <si>
+    <t>85311</t>
+  </si>
+  <si>
+    <t>582483609</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Won't stay here again!!!!</t>
+  </si>
+  <si>
+    <t>The staff was very friendly.  The room was disgusting.  Carpet was stained, hole in the bathroom door was repaired poorly.  There was hair on the walls of the bathroom.  Was not worth the price I paid and was shocked considering the neighborhood this hotel is located in for it to in such bad shapeMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
+  </si>
+  <si>
+    <t>The staff was very friendly.  The room was disgusting.  Carpet was stained, hole in the bathroom door was repaired poorly.  There was hair on the walls of the bathroom.  Was not worth the price I paid and was shocked considering the neighborhood this hotel is located in for it to in such bad shapeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r571529232-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>571529232</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Great stay for under $55</t>
+  </si>
+  <si>
+    <t>Clean an inexpensive great stay for under $55 would recommend this room to anyone that is on a budget great location great customer service. Secured we have is police there 24/7. Overall in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Clean an inexpensive great stay for under $55 would recommend this room to anyone that is on a budget great location great customer service. Secured we have is police there 24/7. Overall in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r570098523-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>570098523</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>The staff here is amazing . They are courteous and kind . They handle situations promptly. Mya is a sweet heart and Zach is very understanding. Anthony is a excellent maintenance guy. They keep the property clean, and tidy. Thank you guys for an excellent stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>The staff here is amazing . They are courteous and kind . They handle situations promptly. Mya is a sweet heart and Zach is very understanding. Anthony is a excellent maintenance guy. They keep the property clean, and tidy. Thank you guys for an excellent stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r558912499-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>558912499</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay in your car!  </t>
+  </si>
+  <si>
+    <t>In Denver for cancer treatment. Sleeping in a dirty hotel. Was the last thing we needed! Our room was filthy!  Sheets, bed, and carpet, were all stained.  Walls, cupboards, are dirty.  No, mattress cover, and the mattress itself was stained.  The general appearance of the lobby and hallways were unkept as well.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>In Denver for cancer treatment. Sleeping in a dirty hotel. Was the last thing we needed! Our room was filthy!  Sheets, bed, and carpet, were all stained.  Walls, cupboards, are dirty.  No, mattress cover, and the mattress itself was stained.  The general appearance of the lobby and hallways were unkept as well.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r542247276-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>542247276</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When u want peace !! Come here </t>
+  </si>
+  <si>
+    <t>I enjoy myself every time im here its quiet .pet friendly!  Zach is great !!!! Enjoy your stay .  shower is hot room is warm!! Kitchen works you can spend how ever long like a mini arabian b . within the kast 2 months ive been back and stayed for weeks at a time MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>I enjoy myself every time im here its quiet .pet friendly!  Zach is great !!!! Enjoy your stay .  shower is hot room is warm!! Kitchen works you can spend how ever long like a mini arabian b . within the kast 2 months ive been back and stayed for weeks at a time More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r537258865-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>537258865</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Avoidb Avoid, Avoid</t>
+  </si>
+  <si>
+    <t>By far the worst experience in a hotel.  Nasty, dirty, and the manager was unsympathetic.  Urine on the toilet, food under the bed, hair in the bath tub.  This in 2 rooms.  After someone checked them off as clean.  I did get a refund and went to another extended stay where they were amazing and the rooms are spacious and clean.  I felt unsafe and unwanted.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>By far the worst experience in a hotel.  Nasty, dirty, and the manager was unsympathetic.  Urine on the toilet, food under the bed, hair in the bath tub.  This in 2 rooms.  After someone checked them off as clean.  I did get a refund and went to another extended stay where they were amazing and the rooms are spacious and clean.  I felt unsafe and unwanted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r509908666-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>509908666</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Hotel was ok.  It was nothing I did not expect of an Extended Stay.  The room was a little dirty upon check in the bed linens looked like they had not been changed and the room smelled like someone had just cooked curry.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was ok.  It was nothing I did not expect of an Extended Stay.  The room was a little dirty upon check in the bed linens looked like they had not been changed and the room smelled like someone had just cooked curry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r506296010-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>506296010</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>working in Denver</t>
+  </si>
+  <si>
+    <t>The staff is very nice. That is the only good thing going on here. I have been here for 5 weeks and after begging numerous times have only had sheets changed 3 times. Floor cleaned zero. I am getting a very good rate for the summer in Denver but if that wasn't the case I would look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>The staff is very nice. That is the only good thing going on here. I have been here for 5 weeks and after begging numerous times have only had sheets changed 3 times. Floor cleaned zero. I am getting a very good rate for the summer in Denver but if that wasn't the case I would look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r498441860-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>498441860</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Ewwwwwwww</t>
+  </si>
+  <si>
+    <t>This place is nasty. Everything was falling apart. Nothing worked right. Nice friendly staff but the worst rooms I have ever stayed in. Hole in the bath tub. Carpet warn thru to floor. Nasty stained chairs. Walls are paper thin. Was given an "upgrade" because of first room but honestly 2nd room was just as bad. Stayed in a lot of places but first time in extended stay. Not sure if its all ESA or just this hotel. Don't think I want to find out.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>This place is nasty. Everything was falling apart. Nothing worked right. Nice friendly staff but the worst rooms I have ever stayed in. Hole in the bath tub. Carpet warn thru to floor. Nasty stained chairs. Walls are paper thin. Was given an "upgrade" because of first room but honestly 2nd room was just as bad. Stayed in a lot of places but first time in extended stay. Not sure if its all ESA or just this hotel. Don't think I want to find out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r495012232-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>495012232</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Terrible Stay</t>
+  </si>
+  <si>
+    <t>I didn't get proper sofa bed, it has all blood marks. I didn't even get a separate blanket, even after asked for many times.Cooking stove burner is not working, even that also not taken care, after complaining.. I am big fan of extended stay hotels, but this time I am really disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>I didn't get proper sofa bed, it has all blood marks. I didn't even get a separate blanket, even after asked for many times.Cooking stove burner is not working, even that also not taken care, after complaining.. I am big fan of extended stay hotels, but this time I am really disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r494147231-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>494147231</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Good price, but sacrificed the quality</t>
+  </si>
+  <si>
+    <t>I booked this room for my two adult children. They said that there was trash in the stairwells and hallways. The internet service was extremely slow. The kitchen did not come equipped with dishes or silverware. To make matters worse, my son found blood stains on the mattress. Overall, a very poor experience. I had hoped for better.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>I booked this room for my two adult children. They said that there was trash in the stairwells and hallways. The internet service was extremely slow. The kitchen did not come equipped with dishes or silverware. To make matters worse, my son found blood stains on the mattress. Overall, a very poor experience. I had hoped for better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r492480452-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>492480452</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Sunday Morning 8 AM Chainsaws</t>
+  </si>
+  <si>
+    <t>Gee Denver is a fun town, but this place SUCKS. No one can do anything. 8 AM Sunday morning they have a rude bunch of men outside my hotel room door doing YARD WORK with bush trimmers (gas), weedwackers (gas),loud yelling and talking over the gas motors. I get 3 hours of sleep. This place is horrible. We will be leaving as soon as this reservation is done. We won't be back. Have stayed here several times in the past, but this is beyond the pale. Figure out your customers come first, not your little manager who didn't even have the guts to come down to talk with me and the rest of the folks. But rather, left someone who knew nothing about what was going on to deal with upset folks. Your manager is lazy, and doesn't care about what goes on - and he frigging LIVES ON THE PROPERTY. Get someone who gives a flip, or close this flop house down.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Gee Denver is a fun town, but this place SUCKS. No one can do anything. 8 AM Sunday morning they have a rude bunch of men outside my hotel room door doing YARD WORK with bush trimmers (gas), weedwackers (gas),loud yelling and talking over the gas motors. I get 3 hours of sleep. This place is horrible. We will be leaving as soon as this reservation is done. We won't be back. Have stayed here several times in the past, but this is beyond the pale. Figure out your customers come first, not your little manager who didn't even have the guts to come down to talk with me and the rest of the folks. But rather, left someone who knew nothing about what was going on to deal with upset folks. Your manager is lazy, and doesn't care about what goes on - and he frigging LIVES ON THE PROPERTY. Get someone who gives a flip, or close this flop house down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r481640434-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>481640434</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>I love this Hotel the staff are awesome, the rooms are always freshly cleaned and huge, there is breakfast in the morning everyone is so nice and welcoming. The make sure that it's your home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>I love this Hotel the staff are awesome, the rooms are always freshly cleaned and huge, there is breakfast in the morning everyone is so nice and welcoming. The make sure that it's your home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r468112645-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>468112645</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay in Centennial, Denver</t>
+  </si>
+  <si>
+    <t>The room is spacious, clean, and comfortable. I had a queen bed in the bedroom and a sofa bed in the main room. The staff was very friendly and helpfull. The location is very good with many options of restaurants and a big supermarket nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>The room is spacious, clean, and comfortable. I had a queen bed in the bedroom and a sofa bed in the main room. The staff was very friendly and helpfull. The location is very good with many options of restaurants and a big supermarket nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r467319893-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>467319893</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Very pleased with long term stay!</t>
+  </si>
+  <si>
+    <t>I have been at this location for a little over a year and my experience has been nothing but satisfactory.  The management team and they guests have been overly friendly and very helpfully . Management will go out of their way to ensure that your stay is pleasant. The hotel has undergone renovations throughout mmj y stay but I have not been inconvenienced during these times of improvement. I would recommend this hotel based off my personal experience.  Pam C.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r428736081-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>428736081</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Stay anywhere else!</t>
+  </si>
+  <si>
+    <t>This hotel made myself and my daughter cry at the thought of sleeping there. Due to a relocation we had planned staying 3 weeks. We lasted 12 hours. Our room was disgusting, skin crawling gross. Kitchenette outdated and beat up. Bathroom reeked of cigarette smoke, so much for smoke free.  Bed dirty and uncomfortable, possible blood stains.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>This hotel made myself and my daughter cry at the thought of sleeping there. Due to a relocation we had planned staying 3 weeks. We lasted 12 hours. Our room was disgusting, skin crawling gross. Kitchenette outdated and beat up. Bathroom reeked of cigarette smoke, so much for smoke free.  Bed dirty and uncomfortable, possible blood stains.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r428144413-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>428144413</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Horribly Maintained Property</t>
+  </si>
+  <si>
+    <t>First, I asked for a Mt. View room.  My room looked out onto the parking lot of the hotel next door.  There was what appeared to be a king size sheet on my queen size bed.  Doors were missing from cabinets and the room smelled musty and like curry.  And the bathtub dripped loudly and continuously.  They did come and put on a sheet that fit.  The free "breakfast" they included consisted of coffee, 2 kinds of muffins in plastic bags, 2 kinds of granola bars, 4 flavors of instant oatmeal and hot water.  Worst breakfast I've ever been offered at a hotel.  I suffered through several nights here and checked out early.  Couldn't take it any longer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>First, I asked for a Mt. View room.  My room looked out onto the parking lot of the hotel next door.  There was what appeared to be a king size sheet on my queen size bed.  Doors were missing from cabinets and the room smelled musty and like curry.  And the bathtub dripped loudly and continuously.  They did come and put on a sheet that fit.  The free "breakfast" they included consisted of coffee, 2 kinds of muffins in plastic bags, 2 kinds of granola bars, 4 flavors of instant oatmeal and hot water.  Worst breakfast I've ever been offered at a hotel.  I suffered through several nights here and checked out early.  Couldn't take it any longer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r427895731-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>427895731</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>wonderful hotel</t>
+  </si>
+  <si>
+    <t>I loved staying at this hotel, the staff is wonderful and helpful and pleasant, the manager is very nice every time I needed anything like towels or dishes or anything they were always there everything was nice and clean the cleaning people we very nice and made sure not o mess with my thingsMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>I loved staying at this hotel, the staff is wonderful and helpful and pleasant, the manager is very nice every time I needed anything like towels or dishes or anything they were always there everything was nice and clean the cleaning people we very nice and made sure not o mess with my thingsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r401098722-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>401098722</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Worst ever hotel experience of my life</t>
+  </si>
+  <si>
+    <t>I was planning to stay two nights in this hotel to have a special retreat with my young son and nephew.  The problems began right from the get go.  I needed a two bed room....they had NOTHING.  Then they offered me a room with a pullout sofa but it had no sheets or pillows.  Said they needed to wash them and then they would bring them up to my room.  This dialogue began at around 3:30 in the afternoon.  I called at 8:00pm and they said they would bring them up.  At 9:45 the sheets were still not delivered so I called them and they didn't know what I was talking about and said I have to come downstairs and get them myself.  I got no sleep.  The pillows were uncomfortable and so was the bed.  The service was horrible.  Then, in the morning I went downstairs for the continental breakfast and all they had was coffee and prepackaged muffins.  It was horrible and the place smelled.  The hotel was grungy.  There were only three towels, no extra.  No extra pillows.  No one was ever at the front desk to greet me and welcome us in.  I would love to report this hotel experience to corporate but we overheard other customers complaining while we were there and the hotel attendant said, Go ahead and report us to corporate.  I was so very shocked at the entire experience....no pool and it...I was planning to stay two nights in this hotel to have a special retreat with my young son and nephew.  The problems began right from the get go.  I needed a two bed room....they had NOTHING.  Then they offered me a room with a pullout sofa but it had no sheets or pillows.  Said they needed to wash them and then they would bring them up to my room.  This dialogue began at around 3:30 in the afternoon.  I called at 8:00pm and they said they would bring them up.  At 9:45 the sheets were still not delivered so I called them and they didn't know what I was talking about and said I have to come downstairs and get them myself.  I got no sleep.  The pillows were uncomfortable and so was the bed.  The service was horrible.  Then, in the morning I went downstairs for the continental breakfast and all they had was coffee and prepackaged muffins.  It was horrible and the place smelled.  The hotel was grungy.  There were only three towels, no extra.  No extra pillows.  No one was ever at the front desk to greet me and welcome us in.  I would love to report this hotel experience to corporate but we overheard other customers complaining while we were there and the hotel attendant said, Go ahead and report us to corporate.  I was so very shocked at the entire experience....no pool and it was $130 for one night...a rip off. I will never stay in an Extended Stay Hotel ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>I was planning to stay two nights in this hotel to have a special retreat with my young son and nephew.  The problems began right from the get go.  I needed a two bed room....they had NOTHING.  Then they offered me a room with a pullout sofa but it had no sheets or pillows.  Said they needed to wash them and then they would bring them up to my room.  This dialogue began at around 3:30 in the afternoon.  I called at 8:00pm and they said they would bring them up.  At 9:45 the sheets were still not delivered so I called them and they didn't know what I was talking about and said I have to come downstairs and get them myself.  I got no sleep.  The pillows were uncomfortable and so was the bed.  The service was horrible.  Then, in the morning I went downstairs for the continental breakfast and all they had was coffee and prepackaged muffins.  It was horrible and the place smelled.  The hotel was grungy.  There were only three towels, no extra.  No extra pillows.  No one was ever at the front desk to greet me and welcome us in.  I would love to report this hotel experience to corporate but we overheard other customers complaining while we were there and the hotel attendant said, Go ahead and report us to corporate.  I was so very shocked at the entire experience....no pool and it...I was planning to stay two nights in this hotel to have a special retreat with my young son and nephew.  The problems began right from the get go.  I needed a two bed room....they had NOTHING.  Then they offered me a room with a pullout sofa but it had no sheets or pillows.  Said they needed to wash them and then they would bring them up to my room.  This dialogue began at around 3:30 in the afternoon.  I called at 8:00pm and they said they would bring them up.  At 9:45 the sheets were still not delivered so I called them and they didn't know what I was talking about and said I have to come downstairs and get them myself.  I got no sleep.  The pillows were uncomfortable and so was the bed.  The service was horrible.  Then, in the morning I went downstairs for the continental breakfast and all they had was coffee and prepackaged muffins.  It was horrible and the place smelled.  The hotel was grungy.  There were only three towels, no extra.  No extra pillows.  No one was ever at the front desk to greet me and welcome us in.  I would love to report this hotel experience to corporate but we overheard other customers complaining while we were there and the hotel attendant said, Go ahead and report us to corporate.  I was so very shocked at the entire experience....no pool and it was $130 for one night...a rip off. I will never stay in an Extended Stay Hotel ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r389723698-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>389723698</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Unsatisfactory stay</t>
+  </si>
+  <si>
+    <t>The carpets and countertops were dirty ,they didn't have enough dishes or cups ,the bed in the sofa was broken,and loaded with pet hair .There was no stopper for the tub and the elevator was broken.A spot by the bed where you can tell a pet urinated and it wasn't cleaned up The spread on the bed was also dirty with a blood stain on it. And they charged me a room tax of 66 dollars when I checked out .I don't know why no one else stayed but me and I didn't even use the phone I don't get itMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2016</t>
+  </si>
+  <si>
+    <t>The carpets and countertops were dirty ,they didn't have enough dishes or cups ,the bed in the sofa was broken,and loaded with pet hair .There was no stopper for the tub and the elevator was broken.A spot by the bed where you can tell a pet urinated and it wasn't cleaned up The spread on the bed was also dirty with a blood stain on it. And they charged me a room tax of 66 dollars when I checked out .I don't know why no one else stayed but me and I didn't even use the phone I don't get itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r376893341-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>376893341</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, quiet, and private.</t>
+  </si>
+  <si>
+    <t>The rooms are very clean and comfortable.  Friendly &amp; helpful staff.  Overall a very satisfying visit.  I would recommend it to anyone else. The rooms are very reasonably priced.  It was by far the nicest Extended Stay I've stayed at before.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are very clean and comfortable.  Friendly &amp; helpful staff.  Overall a very satisfying visit.  I would recommend it to anyone else. The rooms are very reasonably priced.  It was by far the nicest Extended Stay I've stayed at before.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1102,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1134,1440 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>170</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>202</v>
+      </c>
+      <c r="X19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s">
+        <v>218</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>220</v>
+      </c>
+      <c r="X21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>228</v>
+      </c>
+      <c r="X22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_83.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_83.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r595336373-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>33456</t>
+  </si>
+  <si>
+    <t>85311</t>
+  </si>
+  <si>
+    <t>595336373</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>Room had a sticky floor with dirt in the fridge, yes actual dirt. I would do anything to go back in time and not book a stay here. The hotel itself looks awesome from the outside and the lobby isn't bad. Once you get towards any room it's a damp smell, stains all over the carpet and the room was absolutely disgusting. As far as the "continental breakfast" - it consisted of a coffee pot and a basket of pre-wrapped muffins. Nothing to see here, there are many other hotels in the vicinity and I suggest you look at them first.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Room had a sticky floor with dirt in the fridge, yes actual dirt. I would do anything to go back in time and not book a stay here. The hotel itself looks awesome from the outside and the lobby isn't bad. Once you get towards any room it's a damp smell, stains all over the carpet and the room was absolutely disgusting. As far as the "continental breakfast" - it consisted of a coffee pot and a basket of pre-wrapped muffins. Nothing to see here, there are many other hotels in the vicinity and I suggest you look at them first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r587687271-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>587687271</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Absolutely disgusting</t>
+  </si>
+  <si>
+    <t>I was on a business trip and scheduled a room for one night at what I thought would be a reasonable rate for a DECENT room near Denver ($100/night). Oh boy, was I ever mistaken! This place is a complete dump. I was absolutely appalled at the STENCH of weed that has permeated every inch of that hotel; it absolutely REEKS of pot. The carpeting in the halls has large holes worn into it and the hall walls were covered in dirty, chipped paint. When I got to my room, I was extremely disappointed when I opened the door and saw the abhorrent conditions it was in. It looks like it was built in the 1950’s and just painted over again and again and again. Besides the fact that it reeked of pot, the bedding and bed were covered in burn holes, the bathroom was filthy, and it also smelled like sweat and BO. The fridge was dirty and covered in fist dents and the AC was broken. It took 6 times of calling to reach the front desk person, who seemed to permanently be sitting on the couch “chatting” with people. He informed me that I would need to wait for maintenance because they were booked and had no extra rooms. He then mentioned that the AC was broken in the lobby too, and it had been days, waiting on maintenance. I advised him that it was 7:30 at...I was on a business trip and scheduled a room for one night at what I thought would be a reasonable rate for a DECENT room near Denver ($100/night). Oh boy, was I ever mistaken! This place is a complete dump. I was absolutely appalled at the STENCH of weed that has permeated every inch of that hotel; it absolutely REEKS of pot. The carpeting in the halls has large holes worn into it and the hall walls were covered in dirty, chipped paint. When I got to my room, I was extremely disappointed when I opened the door and saw the abhorrent conditions it was in. It looks like it was built in the 1950’s and just painted over again and again and again. Besides the fact that it reeked of pot, the bedding and bed were covered in burn holes, the bathroom was filthy, and it also smelled like sweat and BO. The fridge was dirty and covered in fist dents and the AC was broken. It took 6 times of calling to reach the front desk person, who seemed to permanently be sitting on the couch “chatting” with people. He informed me that I would need to wait for maintenance because they were booked and had no extra rooms. He then mentioned that the AC was broken in the lobby too, and it had been days, waiting on maintenance. I advised him that it was 7:30 at night, I had to be up early for a business meeting and there was no way I was going to sleep in a stinking, hot room so either he needed to find me a new room or pay for a different hotel. He miraculously found a new room where the AC halfway worked.I decided to leave for dinner and had to walk through a group of “people” that were hanging around the exit smoking large amounts of weed. I was then followed by a very strung out guy who kept making crude comments and trying to come up to me; needless to say, I made a bee-line for my nasty room and did not go out for dinner. Come to find out, all of the doors EXCEPT for the lobby doors were supposed to lock when closed, and only allow entrance with a room key. Theirs, however, had been jammed with small rocks to keep from closing properly and thus allowing entrance to anyone and everyone at any time.After spending a miserable night on the pleather sofa (the bed was disgusting), I hurried down to grab breakfast before my meeting…only to be met with a small basket of cheap granola bars and a small basket of Little Debbie mini muffins, an empty pot of hot water, an empty pot of decaf and regular coffee that was so strong that it was impossible to choke down. THAT WAS IT… no fruit, no juice, NOTHING.So, if you are looking for a decent room that is not fancy, but at least clean and inviting, do NOT stay here. If it hadn’t been so late, I would have found another place to stay and not had to deal with the ghetto hotel full of strung out druggies.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>I was on a business trip and scheduled a room for one night at what I thought would be a reasonable rate for a DECENT room near Denver ($100/night). Oh boy, was I ever mistaken! This place is a complete dump. I was absolutely appalled at the STENCH of weed that has permeated every inch of that hotel; it absolutely REEKS of pot. The carpeting in the halls has large holes worn into it and the hall walls were covered in dirty, chipped paint. When I got to my room, I was extremely disappointed when I opened the door and saw the abhorrent conditions it was in. It looks like it was built in the 1950’s and just painted over again and again and again. Besides the fact that it reeked of pot, the bedding and bed were covered in burn holes, the bathroom was filthy, and it also smelled like sweat and BO. The fridge was dirty and covered in fist dents and the AC was broken. It took 6 times of calling to reach the front desk person, who seemed to permanently be sitting on the couch “chatting” with people. He informed me that I would need to wait for maintenance because they were booked and had no extra rooms. He then mentioned that the AC was broken in the lobby too, and it had been days, waiting on maintenance. I advised him that it was 7:30 at...I was on a business trip and scheduled a room for one night at what I thought would be a reasonable rate for a DECENT room near Denver ($100/night). Oh boy, was I ever mistaken! This place is a complete dump. I was absolutely appalled at the STENCH of weed that has permeated every inch of that hotel; it absolutely REEKS of pot. The carpeting in the halls has large holes worn into it and the hall walls were covered in dirty, chipped paint. When I got to my room, I was extremely disappointed when I opened the door and saw the abhorrent conditions it was in. It looks like it was built in the 1950’s and just painted over again and again and again. Besides the fact that it reeked of pot, the bedding and bed were covered in burn holes, the bathroom was filthy, and it also smelled like sweat and BO. The fridge was dirty and covered in fist dents and the AC was broken. It took 6 times of calling to reach the front desk person, who seemed to permanently be sitting on the couch “chatting” with people. He informed me that I would need to wait for maintenance because they were booked and had no extra rooms. He then mentioned that the AC was broken in the lobby too, and it had been days, waiting on maintenance. I advised him that it was 7:30 at night, I had to be up early for a business meeting and there was no way I was going to sleep in a stinking, hot room so either he needed to find me a new room or pay for a different hotel. He miraculously found a new room where the AC halfway worked.I decided to leave for dinner and had to walk through a group of “people” that were hanging around the exit smoking large amounts of weed. I was then followed by a very strung out guy who kept making crude comments and trying to come up to me; needless to say, I made a bee-line for my nasty room and did not go out for dinner. Come to find out, all of the doors EXCEPT for the lobby doors were supposed to lock when closed, and only allow entrance with a room key. Theirs, however, had been jammed with small rocks to keep from closing properly and thus allowing entrance to anyone and everyone at any time.After spending a miserable night on the pleather sofa (the bed was disgusting), I hurried down to grab breakfast before my meeting…only to be met with a small basket of cheap granola bars and a small basket of Little Debbie mini muffins, an empty pot of hot water, an empty pot of decaf and regular coffee that was so strong that it was impossible to choke down. THAT WAS IT… no fruit, no juice, NOTHING.So, if you are looking for a decent room that is not fancy, but at least clean and inviting, do NOT stay here. If it hadn’t been so late, I would have found another place to stay and not had to deal with the ghetto hotel full of strung out druggies.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r582483609-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
   </si>
   <si>
-    <t>33456</t>
-  </si>
-  <si>
-    <t>85311</t>
-  </si>
-  <si>
     <t>582483609</t>
   </si>
   <si>
@@ -249,6 +303,57 @@
     <t>The staff here is amazing . They are courteous and kind . They handle situations promptly. Mya is a sweet heart and Zach is very understanding. Anthony is a excellent maintenance guy. They keep the property clean, and tidy. Thank you guys for an excellent stay.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r568008459-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>568008459</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Reshell's Review</t>
+  </si>
+  <si>
+    <t>The Extended Stay Hotel turned my desperate search for new housing into a wonderful experience that I no longer dreaded. The rooms were beautiful, comfortable and provided everything I needed to feel at home. I was able to purchase and cook my own meals to avoid the high cost of eating out. A light, quick breakfast is served each morning The staff here are amazing, friendly and go out their way to accommodate your needs promptly.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>The Extended Stay Hotel turned my desperate search for new housing into a wonderful experience that I no longer dreaded. The rooms were beautiful, comfortable and provided everything I needed to feel at home. I was able to purchase and cook my own meals to avoid the high cost of eating out. A light, quick breakfast is served each morning The staff here are amazing, friendly and go out their way to accommodate your needs promptly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r560541741-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>560541741</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>Very well priced value hotel! Even though I 25 was right outside my front window I could hardly hear the cars going by.</t>
+  </si>
+  <si>
+    <t>This Motel is situated very nicely south of busy Denver and yet close enough you can be anywhere in 10 minutes. There were no loud noises at night and I could hardly hear the traffic. Plenty of wonderful places to eat in the vicinity MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>This Motel is situated very nicely south of busy Denver and yet close enough you can be anywhere in 10 minutes. There were no loud noises at night and I could hardly hear the traffic. Plenty of wonderful places to eat in the vicinity More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r558912499-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
   </si>
   <si>
@@ -264,9 +369,6 @@
     <t>In Denver for cancer treatment. Sleeping in a dirty hotel. Was the last thing we needed! Our room was filthy!  Sheets, bed, and carpet, were all stained.  Walls, cupboards, are dirty.  No, mattress cover, and the mattress itself was stained.  The general appearance of the lobby and hallways were unkept as well.  MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded February 7, 2018</t>
   </si>
   <si>
@@ -321,9 +423,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded October 31, 2017</t>
   </si>
   <si>
@@ -333,24 +432,69 @@
     <t>By far the worst experience in a hotel.  Nasty, dirty, and the manager was unsympathetic.  Urine on the toilet, food under the bed, hair in the bath tub.  This in 2 rooms.  After someone checked them off as clean.  I did get a refund and went to another extended stay where they were amazing and the rooms are spacious and clean.  I felt unsafe and unwanted.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r510663807-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>510663807</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>The entire experience made me certain I would never stay ast this location again.  It could have all been made better if the staff were not so rude. The only positive was the outside appearance of the stayMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>The entire experience made me certain I would never stay ast this location again.  It could have all been made better if the staff were not so rude. The only positive was the outside appearance of the stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r509700677-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>509700677</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>What is that smell?</t>
+  </si>
+  <si>
+    <t>Everywhere in the hotel smelled of cigarette, despite claiming to be smoke free. There was also a fruity/sweet smell in the air, which did not cover the smell of smoking, but mixed with it, making you nauseated. The "Free Breakfast" is store bought muffins.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Everywhere in the hotel smelled of cigarette, despite claiming to be smoke free. There was also a fruity/sweet smell in the air, which did not cover the smell of smoking, but mixed with it, making you nauseated. The "Free Breakfast" is store bought muffins.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r509908666-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
   </si>
   <si>
     <t>509908666</t>
   </si>
   <si>
-    <t>08/07/2017</t>
-  </si>
-  <si>
     <t>Good Stay</t>
   </si>
   <si>
     <t>Hotel was ok.  It was nothing I did not expect of an Extended Stay.  The room was a little dirty upon check in the bed linens looked like they had not been changed and the room smelled like someone had just cooked curry.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded August 8, 2017</t>
   </si>
   <si>
@@ -411,6 +555,57 @@
     <t>This place is nasty. Everything was falling apart. Nothing worked right. Nice friendly staff but the worst rooms I have ever stayed in. Hole in the bath tub. Carpet warn thru to floor. Nasty stained chairs. Walls are paper thin. Was given an "upgrade" because of first room but honestly 2nd room was just as bad. Stayed in a lot of places but first time in extended stay. Not sure if its all ESA or just this hotel. Don't think I want to find out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r497824684-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>497824684</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Horrible Hotel</t>
+  </si>
+  <si>
+    <t>Was the worst hotel experience. I would never go to the hotel again. Our first room smelled and the second one seemed dirty, but at least didn't smell as bad. We went for our daughter's softball tournament and booked this hotel through the TCS website at a specific rate and the hotel changed the rate without notifying us. I was ready to go home.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Was the worst hotel experience. I would never go to the hotel again. Our first room smelled and the second one seemed dirty, but at least didn't smell as bad. We went for our daughter's softball tournament and booked this hotel through the TCS website at a specific rate and the hotel changed the rate without notifying us. I was ready to go home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r495633611-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>495633611</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Expected and received</t>
+  </si>
+  <si>
+    <t>Coming to an extended stay, I knew that I was going to be getting basic things.  TV, stove top kitchen, and a laundry room.  The bed wasn't that comfortable but it was good enough.  My wife claimed her back hurt after a few nights on the bed.  But overall, it serves its purpose.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Coming to an extended stay, I knew that I was going to be getting basic things.  TV, stove top kitchen, and a laundry room.  The bed wasn't that comfortable but it was good enough.  My wife claimed her back hurt after a few nights on the bed.  But overall, it serves its purpose.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r495012232-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
   </si>
   <si>
@@ -426,9 +621,6 @@
     <t>I didn't get proper sofa bed, it has all blood marks. I didn't even get a separate blanket, even after asked for many times.Cooking stove burner is not working, even that also not taken care, after complaining.. I am big fan of extended stay hotels, but this time I am really disappointed.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded June 22, 2017</t>
   </si>
   <si>
@@ -486,6 +678,51 @@
     <t>Gee Denver is a fun town, but this place SUCKS. No one can do anything. 8 AM Sunday morning they have a rude bunch of men outside my hotel room door doing YARD WORK with bush trimmers (gas), weedwackers (gas),loud yelling and talking over the gas motors. I get 3 hours of sleep. This place is horrible. We will be leaving as soon as this reservation is done. We won't be back. Have stayed here several times in the past, but this is beyond the pale. Figure out your customers come first, not your little manager who didn't even have the guts to come down to talk with me and the rest of the folks. But rather, left someone who knew nothing about what was going on to deal with upset folks. Your manager is lazy, and doesn't care about what goes on - and he frigging LIVES ON THE PROPERTY. Get someone who gives a flip, or close this flop house down.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r491947398-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>491947398</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Dirty, not well maintained.</t>
+  </si>
+  <si>
+    <t>Found this gem when I selected to "name my price" surrounding centennial. I wasn't concerned in selecting 3 star minimum within that area as I assumed it would be nice and safe from my previous experience. Upon check in (3:15) I was told to return in another 15 minutes as nothing was clean or prepared for check in. We returned a couple hours later and was checked in. The exterior of the hotel looked nice at first glance and once you came through any door you are quickly greeted by a stale odor with a finish of urine. The walls, doorways, glass and floors are dirty. The noise is a bit overwhelming and there is constant smoking near the doors. Arriving to my room is wasnt cleaned thoroughly and there were crumbs in the drawers and cabinets as well as smeared unmentionables on the cabinets in the bathroom. Arriving for business I didn't have time to find another hotel. Upon check out I mentioned my room hadn't been cleaned and to be sure it is before the next guest arrives. I received an apology. Leaving... there was a large knife pointed towards my tire on the ground I would have backed over if I hadn't seen it and then there were panties in the space next to us. Amongst the trash that littered the properly and everything else mentioned this is the worst experience I have ever had at a...Found this gem when I selected to "name my price" surrounding centennial. I wasn't concerned in selecting 3 star minimum within that area as I assumed it would be nice and safe from my previous experience. Upon check in (3:15) I was told to return in another 15 minutes as nothing was clean or prepared for check in. We returned a couple hours later and was checked in. The exterior of the hotel looked nice at first glance and once you came through any door you are quickly greeted by a stale odor with a finish of urine. The walls, doorways, glass and floors are dirty. The noise is a bit overwhelming and there is constant smoking near the doors. Arriving to my room is wasnt cleaned thoroughly and there were crumbs in the drawers and cabinets as well as smeared unmentionables on the cabinets in the bathroom. Arriving for business I didn't have time to find another hotel. Upon check out I mentioned my room hadn't been cleaned and to be sure it is before the next guest arrives. I received an apology. Leaving... there was a large knife pointed towards my tire on the ground I would have backed over if I hadn't seen it and then there were panties in the space next to us. Amongst the trash that littered the properly and everything else mentioned this is the worst experience I have ever had at a hotel. I would never recommend this property. Spend your hard earned money elsewhere and stay somewhere safe and clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Found this gem when I selected to "name my price" surrounding centennial. I wasn't concerned in selecting 3 star minimum within that area as I assumed it would be nice and safe from my previous experience. Upon check in (3:15) I was told to return in another 15 minutes as nothing was clean or prepared for check in. We returned a couple hours later and was checked in. The exterior of the hotel looked nice at first glance and once you came through any door you are quickly greeted by a stale odor with a finish of urine. The walls, doorways, glass and floors are dirty. The noise is a bit overwhelming and there is constant smoking near the doors. Arriving to my room is wasnt cleaned thoroughly and there were crumbs in the drawers and cabinets as well as smeared unmentionables on the cabinets in the bathroom. Arriving for business I didn't have time to find another hotel. Upon check out I mentioned my room hadn't been cleaned and to be sure it is before the next guest arrives. I received an apology. Leaving... there was a large knife pointed towards my tire on the ground I would have backed over if I hadn't seen it and then there were panties in the space next to us. Amongst the trash that littered the properly and everything else mentioned this is the worst experience I have ever had at a...Found this gem when I selected to "name my price" surrounding centennial. I wasn't concerned in selecting 3 star minimum within that area as I assumed it would be nice and safe from my previous experience. Upon check in (3:15) I was told to return in another 15 minutes as nothing was clean or prepared for check in. We returned a couple hours later and was checked in. The exterior of the hotel looked nice at first glance and once you came through any door you are quickly greeted by a stale odor with a finish of urine. The walls, doorways, glass and floors are dirty. The noise is a bit overwhelming and there is constant smoking near the doors. Arriving to my room is wasnt cleaned thoroughly and there were crumbs in the drawers and cabinets as well as smeared unmentionables on the cabinets in the bathroom. Arriving for business I didn't have time to find another hotel. Upon check out I mentioned my room hadn't been cleaned and to be sure it is before the next guest arrives. I received an apology. Leaving... there was a large knife pointed towards my tire on the ground I would have backed over if I hadn't seen it and then there were panties in the space next to us. Amongst the trash that littered the properly and everything else mentioned this is the worst experience I have ever had at a hotel. I would never recommend this property. Spend your hard earned money elsewhere and stay somewhere safe and clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r491742863-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>491742863</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Phenomenal Place for Transitioning</t>
+  </si>
+  <si>
+    <t>Phenomenal place to stay in transition. The staff and service is stellar, there is a family oriented atmosphere in this location. The continental breakfast each morning helps you to get your day started, I missed it the first day I left. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Phenomenal place to stay in transition. The staff and service is stellar, there is a family oriented atmosphere in this location. The continental breakfast each morning helps you to get your day started, I missed it the first day I left. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r481640434-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
   </si>
   <si>
@@ -555,6 +792,63 @@
     <t>I have been at this location for a little over a year and my experience has been nothing but satisfactory.  The management team and they guests have been overly friendly and very helpfully . Management will go out of their way to ensure that your stay is pleasant. The hotel has undergone renovations throughout mmj y stay but I have not been inconvenienced during these times of improvement. I would recommend this hotel based off my personal experience.  Pam C.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r461511081-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>461511081</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Very Friendly</t>
+  </si>
+  <si>
+    <t>The staff has made my family feel at home. Most residents are nice and will treat you like family. The rooms are beautiful and homey. For the situation we are in the staff has made it possible to almost forget that we are in an extened stay. The GM Cameron has gone above and beyond to make sure we are safe, secure and generally happy with our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>The staff has made my family feel at home. Most residents are nice and will treat you like family. The rooms are beautiful and homey. For the situation we are in the staff has made it possible to almost forget that we are in an extened stay. The GM Cameron has gone above and beyond to make sure we are safe, secure and generally happy with our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r446475483-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>446475483</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Very Accommodating.</t>
+  </si>
+  <si>
+    <t>I have to say that  everyone at 9253 E Costilla Ave,Greenwood Village,Co.  were so very nice and professional to me while I was there from 12-15-16  to  12-19-16.The room was clean and satisfactory. All the staff had a family style attitude about them. I mean it was not like, ok your the guest and Im the staff. They would always take the time to listen and sit and have a little chit chat with me. If the need ever arised again I would definitely return.  Thanks Cameron and everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>I have to say that  everyone at 9253 E Costilla Ave,Greenwood Village,Co.  were so very nice and professional to me while I was there from 12-15-16  to  12-19-16.The room was clean and satisfactory. All the staff had a family style attitude about them. I mean it was not like, ok your the guest and Im the staff. They would always take the time to listen and sit and have a little chit chat with me. If the need ever arised again I would definitely return.  Thanks Cameron and everyone.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r428736081-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
   </si>
   <si>
@@ -633,6 +927,61 @@
     <t>I loved staying at this hotel, the staff is wonderful and helpful and pleasant, the manager is very nice every time I needed anything like towels or dishes or anything they were always there everything was nice and clean the cleaning people we very nice and made sure not o mess with my thingsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r424845844-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>424845844</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>This place is disgraceful!!</t>
+  </si>
+  <si>
+    <t>One of the worst hotels I have ever been in!  Everything is filthy, absolutely filthy, there is only one person on staff at all times.  They count your towels and anything they "give" you to stay in a barely habitable room.  
+The first Extended Stay on Geddes St we were supposed to stay at I refused to stay more than 5 minutes, I cried in my van on the phone with corporate for over an hour in the parking lot begging them to move us to another hotel.  I was also told when I made the reservation I would have a first level room, but at this Extended Stay location on Geddes St. they told me there has not been a first level room available for over a year.  I had to go upstairs, there was no elevator, carrying my disabled son up and down stairs.  He and I have never been so disgraced in all our life. When we did get to the room it had broken cabinets, the bed had been laid in, it stunk and was dark and dank.  We went back to the van, and as I was siting in my van on the phone with corporate I was watching the prostitutes going in and out and being picked up!!!  
+We were transferred to this Extended Stay on Costilla Ave and the only thing better is they have an elevator! When I had called corporate I...One of the worst hotels I have ever been in!  Everything is filthy, absolutely filthy, there is only one person on staff at all times.  They count your towels and anything they "give" you to stay in a barely habitable room.  The first Extended Stay on Geddes St we were supposed to stay at I refused to stay more than 5 minutes, I cried in my van on the phone with corporate for over an hour in the parking lot begging them to move us to another hotel.  I was also told when I made the reservation I would have a first level room, but at this Extended Stay location on Geddes St. they told me there has not been a first level room available for over a year.  I had to go upstairs, there was no elevator, carrying my disabled son up and down stairs.  He and I have never been so disgraced in all our life. When we did get to the room it had broken cabinets, the bed had been laid in, it stunk and was dark and dank.  We went back to the van, and as I was siting in my van on the phone with corporate I was watching the prostitutes going in and out and being picked up!!!  We were transferred to this Extended Stay on Costilla Ave and the only thing better is they have an elevator! When I had called corporate I was told a district manager would get back to me right away and no phone call yet!!  No check marks here!!!  I cannot believe this place is still in business!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2016</t>
+  </si>
+  <si>
+    <t>One of the worst hotels I have ever been in!  Everything is filthy, absolutely filthy, there is only one person on staff at all times.  They count your towels and anything they "give" you to stay in a barely habitable room.  
+The first Extended Stay on Geddes St we were supposed to stay at I refused to stay more than 5 minutes, I cried in my van on the phone with corporate for over an hour in the parking lot begging them to move us to another hotel.  I was also told when I made the reservation I would have a first level room, but at this Extended Stay location on Geddes St. they told me there has not been a first level room available for over a year.  I had to go upstairs, there was no elevator, carrying my disabled son up and down stairs.  He and I have never been so disgraced in all our life. When we did get to the room it had broken cabinets, the bed had been laid in, it stunk and was dark and dank.  We went back to the van, and as I was siting in my van on the phone with corporate I was watching the prostitutes going in and out and being picked up!!!  
+We were transferred to this Extended Stay on Costilla Ave and the only thing better is they have an elevator! When I had called corporate I...One of the worst hotels I have ever been in!  Everything is filthy, absolutely filthy, there is only one person on staff at all times.  They count your towels and anything they "give" you to stay in a barely habitable room.  The first Extended Stay on Geddes St we were supposed to stay at I refused to stay more than 5 minutes, I cried in my van on the phone with corporate for over an hour in the parking lot begging them to move us to another hotel.  I was also told when I made the reservation I would have a first level room, but at this Extended Stay location on Geddes St. they told me there has not been a first level room available for over a year.  I had to go upstairs, there was no elevator, carrying my disabled son up and down stairs.  He and I have never been so disgraced in all our life. When we did get to the room it had broken cabinets, the bed had been laid in, it stunk and was dark and dank.  We went back to the van, and as I was siting in my van on the phone with corporate I was watching the prostitutes going in and out and being picked up!!!  We were transferred to this Extended Stay on Costilla Ave and the only thing better is they have an elevator! When I had called corporate I was told a district manager would get back to me right away and no phone call yet!!  No check marks here!!!  I cannot believe this place is still in business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r404732437-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>404732437</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Future site for the Police Department</t>
+  </si>
+  <si>
+    <t>I stayed here 2 times. Insufficient personal items. Remote had duck tape to hold the batteries in. Need I say more? Almost caused a fire. Lucky I'm smart. Dungeon-esque rooms. Cards kept failing. Left over dishes. Disease? Smoke hangout out front. Blah, blah, blah. Police there regularly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Greenwood Village, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here 2 times. Insufficient personal items. Remote had duck tape to hold the batteries in. Need I say more? Almost caused a fire. Lucky I'm smart. Dungeon-esque rooms. Cards kept failing. Left over dishes. Disease? Smoke hangout out front. Blah, blah, blah. Police there regularly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r401098722-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
   </si>
   <si>
@@ -709,6 +1058,27 @@
   </si>
   <si>
     <t>The rooms are very clean and comfortable.  Friendly &amp; helpful staff.  Overall a very satisfying visit.  I would recommend it to anyone else. The rooms are very reasonably priced.  It was by far the nicest Extended Stay I've stayed at before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85311-r370292672-Extended_Stay_America_Denver_Tech_Center_South_Greenwood_Village-Greenwood_Village_.html</t>
+  </si>
+  <si>
+    <t>370292672</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Our stay was superb for so many reasons</t>
+  </si>
+  <si>
+    <t>I really liked and appreciated this hotel. My husband who has cancer and was under going chemo therapy and radiation felt the rooms were very comfortable, clean and quite. They have everything you could ever need an oven, microwave, dishes, coffee pot, coffee,and full refrigerator. The area has lots of good restaurants, safeway, walmart, target, all within a few miles.Mike and his staff make this hotel. No order or problem was ever too big for them to solve. And always with a smile. They were very welcoming, helpful and always accommodating.To move in, in our most difficult situation, with my husbands condition, they made our lives so much easier and comfortable every day in every way. I will be forever grateful for everything they did as well as what the hotel did for us. This is what I would call a true Home Away from Home, that is a tall order, and this hotel deliversMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I really liked and appreciated this hotel. My husband who has cancer and was under going chemo therapy and radiation felt the rooms were very comfortable, clean and quite. They have everything you could ever need an oven, microwave, dishes, coffee pot, coffee,and full refrigerator. The area has lots of good restaurants, safeway, walmart, target, all within a few miles.Mike and his staff make this hotel. No order or problem was ever too big for them to solve. And always with a smile. They were very welcoming, helpful and always accommodating.To move in, in our most difficult situation, with my husbands condition, they made our lives so much easier and comfortable every day in every way. I will be forever grateful for everything they did as well as what the hotel did for us. This is what I would call a true Home Away from Home, that is a tall order, and this hotel deliversMore</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1613,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1252,14 +1622,14 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1308,41 +1678,35 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1358,7 +1722,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1367,43 +1731,47 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="X4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1419,7 +1787,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1428,43 +1796,53 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>81</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1480,7 +1858,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1489,25 +1867,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>91</v>
-      </c>
-      <c r="O6" t="s">
-        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1562,31 +1940,41 @@
         <v>99</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
         <v>102</v>
-      </c>
-      <c r="X7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -1602,7 +1990,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1611,37 +1999,37 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
         <v>106</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>108</v>
       </c>
-      <c r="L8" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
         <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1651,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
         <v>111</v>
-      </c>
-      <c r="X8" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -1673,7 +2061,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1682,49 +2070,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
         <v>115</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>116</v>
       </c>
-      <c r="K9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" t="s">
-        <v>118</v>
-      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1740,7 +2122,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1749,53 +2131,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
         <v>124</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>125</v>
       </c>
-      <c r="K10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" t="s">
-        <v>127</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>119</v>
-      </c>
       <c r="O10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
         <v>128</v>
-      </c>
-      <c r="X10" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1811,7 +2183,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1820,25 +2192,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
         <v>132</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>133</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>134</v>
       </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>136</v>
-      </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1850,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
         <v>137</v>
-      </c>
-      <c r="X11" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -1872,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1881,28 +2253,28 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
         <v>141</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>142</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>143</v>
       </c>
-      <c r="L12" t="s">
-        <v>144</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>136</v>
-      </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
@@ -1915,19 +2287,19 @@
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
         <v>145</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>146</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -1943,7 +2315,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1952,32 +2324,32 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
         <v>149</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>150</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>151</v>
       </c>
-      <c r="L13" t="s">
-        <v>152</v>
-      </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>3</v>
@@ -1986,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
         <v>153</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>154</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -2008,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2017,43 +2389,53 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
         <v>157</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>158</v>
       </c>
-      <c r="K14" t="s">
-        <v>159</v>
-      </c>
-      <c r="L14" t="s">
-        <v>160</v>
-      </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
@@ -2069,7 +2451,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2078,43 +2460,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
         <v>166</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>167</v>
       </c>
-      <c r="K15" t="s">
-        <v>168</v>
-      </c>
-      <c r="L15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>170</v>
-      </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
@@ -2130,7 +2518,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2139,43 +2527,51 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
         <v>175</v>
       </c>
-      <c r="J16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" t="s">
-        <v>178</v>
-      </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
       <c r="Y16" t="s">
         <v>178</v>
       </c>
@@ -2220,14 +2616,20 @@
         <v>184</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>3</v>
@@ -2279,23 +2681,29 @@
         <v>192</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
         <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2344,37 +2752,31 @@
         <v>200</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
         <v>202</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>203</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="20">
@@ -2390,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2399,49 +2801,53 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
         <v>206</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>207</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>208</v>
       </c>
-      <c r="L20" t="s">
-        <v>209</v>
-      </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>209</v>
+      </c>
+      <c r="X20" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y20" t="s">
         <v>211</v>
-      </c>
-      <c r="X20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -2457,7 +2863,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2466,43 +2872,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
         <v>215</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>216</v>
-      </c>
-      <c r="K21" t="s">
-        <v>217</v>
-      </c>
-      <c r="L21" t="s">
-        <v>218</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="X21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -2518,7 +2928,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2527,47 +2937,1024 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
         <v>224</v>
       </c>
-      <c r="J22" t="s">
-        <v>225</v>
-      </c>
-      <c r="K22" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" t="s">
-        <v>227</v>
-      </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" t="s"/>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
       <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>228</v>
       </c>
-      <c r="X22" t="s">
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>229</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="J23" t="s">
         <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>225</v>
+      </c>
+      <c r="X23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>241</v>
+      </c>
+      <c r="X24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>262</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>263</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>264</v>
+      </c>
+      <c r="X27" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>272</v>
+      </c>
+      <c r="O28" t="s">
+        <v>273</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>282</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>282</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>291</v>
+      </c>
+      <c r="X30" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>295</v>
+      </c>
+      <c r="J31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>299</v>
+      </c>
+      <c r="O31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>300</v>
+      </c>
+      <c r="X31" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>308</v>
+      </c>
+      <c r="X32" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" t="s">
+        <v>313</v>
+      </c>
+      <c r="K33" t="s">
+        <v>314</v>
+      </c>
+      <c r="L33" t="s">
+        <v>315</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>316</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>317</v>
+      </c>
+      <c r="X33" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>321</v>
+      </c>
+      <c r="J34" t="s">
+        <v>322</v>
+      </c>
+      <c r="K34" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s">
+        <v>324</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>325</v>
+      </c>
+      <c r="O34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>326</v>
+      </c>
+      <c r="X34" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>329</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>330</v>
+      </c>
+      <c r="J35" t="s">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s">
+        <v>332</v>
+      </c>
+      <c r="L35" t="s">
+        <v>333</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>334</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>335</v>
+      </c>
+      <c r="X35" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>339</v>
+      </c>
+      <c r="J36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" t="s">
+        <v>341</v>
+      </c>
+      <c r="L36" t="s">
+        <v>342</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>299</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>343</v>
+      </c>
+      <c r="X36" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36428</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>347</v>
+      </c>
+      <c r="J37" t="s">
+        <v>348</v>
+      </c>
+      <c r="K37" t="s">
+        <v>349</v>
+      </c>
+      <c r="L37" t="s">
+        <v>350</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>351</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
